--- a/singles/ertex/ertex_out.xlsx
+++ b/singles/ertex/ertex_out.xlsx
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -189,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,46 +553,46 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10">
+      <c r="E10" s="1">
         <v>480</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1190</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1056</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>200</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>23.99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13">
+      <c r="E13" s="1">
         <v>555</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>5600</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1.02</v>
       </c>
     </row>
@@ -620,13 +627,13 @@
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>3400</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.32</v>
       </c>
     </row>
@@ -664,10 +671,10 @@
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21">
+      <c r="E21" s="1">
         <v>403</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>720</v>
       </c>
       <c r="G21">
@@ -675,10 +682,10 @@
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22">
+      <c r="E22" s="1">
         <v>579</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>700</v>
       </c>
       <c r="G22">
@@ -686,10 +693,10 @@
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>19600</v>
       </c>
       <c r="G23">
@@ -697,10 +704,10 @@
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>200</v>
       </c>
       <c r="G24">
@@ -741,10 +748,10 @@
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>2660</v>
       </c>
       <c r="G28">
@@ -752,10 +759,10 @@
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>20000</v>
       </c>
       <c r="G29">
@@ -763,142 +770,143 @@
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>100</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>1270</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.21</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32">
+      <c r="E32" s="1">
         <v>606</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>1.8</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1515</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>5</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>38.57</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1400</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>1.63</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>96</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>25.71</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36">
+      <c r="E36" s="1">
         <v>1249</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>600</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>1.74</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37">
+      <c r="E37" s="1">
         <v>557</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>400</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>1.68</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1316</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>1.8</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F39">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
         <v>5000</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>2.59</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1524</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>137.13999999999999</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1513</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>1800</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42">
+      <c r="E42" s="2">
         <v>1519</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>840</v>
       </c>
     </row>
